--- a/Design/Pack/帧动画.xlsx
+++ b/Design/Pack/帧动画.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Name</t>
   </si>
@@ -78,6 +78,34 @@
   </si>
   <si>
     <t>动画尺寸一样时可以预先设定支点的Y坐标（单位尺寸百分比）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>起跳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actions\蒲公英</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -433,12 +461,13 @@
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="5" max="5" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -521,52 +550,150 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+      <c r="D4" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E4" s="1" t="str">
+        <f>"Actions\蒲公英序列帧\"&amp;A4</f>
+        <v>Actions\蒲公英序列帧\待机</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H4">
+        <v>0.75726000000000004</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="D5" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E5" s="1" t="str">
+        <f t="shared" ref="E5:E9" si="0">"Actions\蒲公英序列帧\"&amp;A5</f>
+        <v>Actions\蒲公英序列帧\移动</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.75726000000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\起跳</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H6">
+        <v>0.75726000000000004</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="D7" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\上升</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H7">
+        <v>0.75726000000000004</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
+      <c r="D8" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\下落</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.75726000000000004</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>25</v>
+      </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Actions\蒲公英序列帧\落地</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G9">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H9">
+        <v>0.75726000000000004</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="1"/>

--- a/Design/Pack/帧动画.xlsx
+++ b/Design/Pack/帧动画.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
   <si>
     <t>Name</t>
   </si>
@@ -81,32 +81,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>待机</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>起跳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下落</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>落地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Actions\蒲公英</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\上劈</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\上升</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\下落</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\冲刺升空斩</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\后空翻踢</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\地面普攻1</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\地面普攻2</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\地面普攻3</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\地面普攻4</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\地面被击飞到落地瞬间</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\地面被定身</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\待机</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\移动</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中普攻1</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中普攻2循环</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中普攻2起手</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中普攻3</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中转身下劈</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\落地</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\起跳</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\被击飞落地瞬间后动作</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\折跃瞬移攻击前段</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\折跃瞬移攻击后段</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\斜向瞬移前段</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\斜向瞬移后段</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\水平瞬移前段</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\水平瞬移后段</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中被击飞空中落地瞬间</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\空中被击飞被击飞</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\跳劈地面起跳攻击</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\跳劈空中下劈下落过程</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\跳劈空中下劈落地</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\跳劈空中下劈起手</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\飞踢空中</t>
+  </si>
+  <si>
+    <t>Actions\蒲公英序列帧\飞踢落地</t>
+  </si>
+  <si>
+    <t>蒲公英_上升</t>
+  </si>
+  <si>
+    <t>蒲公英_待机</t>
   </si>
 </sst>
 </file>
@@ -458,16 +545,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.75" customWidth="1"/>
+    <col min="5" max="5" width="54.25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -550,22 +637,20 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A4" s="1" t="str">
+        <f>RIGHT(F4, LEN(F4) - FIND("\",F4,1))&amp;"_"&amp;RIGHT(E4, LEN(E4) - FIND("\",E4,9))</f>
+        <v>蒲公英_上劈</v>
+      </c>
+      <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="E4" s="1" t="str">
-        <f>"Actions\蒲公英序列帧\"&amp;A4</f>
-        <v>Actions\蒲公英序列帧\待机</v>
+      <c r="E4" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G4">
         <v>0.48736459999999998</v>
@@ -575,22 +660,20 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1">
-        <v>-1</v>
-      </c>
+      <c r="A5" s="1" t="str">
+        <f t="shared" ref="A5:A38" si="0">RIGHT(F5, LEN(F5) - FIND("\",F5,1))&amp;"_"&amp;RIGHT(E5, LEN(E5) - FIND("\",E5,9))</f>
+        <v>蒲公英_上升</v>
+      </c>
+      <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="E5" s="1" t="str">
-        <f t="shared" ref="E5:E9" si="0">"Actions\蒲公英序列帧\"&amp;A5</f>
-        <v>Actions\蒲公英序列帧\移动</v>
+      <c r="E5" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G5">
         <v>0.48736459999999998</v>
@@ -600,22 +683,20 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
+      <c r="A6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_下落</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Actions\蒲公英序列帧\起跳</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G6">
         <v>0.48736459999999998</v>
@@ -625,20 +706,20 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
+      <c r="A7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_冲刺升空斩</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="E7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Actions\蒲公英序列帧\上升</v>
+      <c r="E7" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G7">
         <v>0.48736459999999998</v>
@@ -648,45 +729,43 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
-        <v>24</v>
+      <c r="A8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_后空翻踢</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>7.6899999999999996E-2</v>
       </c>
-      <c r="E8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Actions\蒲公英序列帧\下落</v>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H8">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_地面普攻1</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G8">
-        <v>0.48736459999999998</v>
-      </c>
-      <c r="H8">
-        <v>0.75726000000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="1">
-        <v>7.6899999999999996E-2</v>
-      </c>
-      <c r="E9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>Actions\蒲公英序列帧\落地</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="G9">
         <v>0.48736459999999998</v>
@@ -696,28 +775,631 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_地面普攻2</v>
+      </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="D10" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H10">
+        <v>0.75726000000000004</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_地面普攻3</v>
+      </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="D11" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H11">
+        <v>0.75726000000000004</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_地面普攻4</v>
+      </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="D12" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H12">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_地面被击飞到落地瞬间</v>
+      </c>
+      <c r="D13" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H13">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_地面被定身</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H14">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_待机</v>
+      </c>
+      <c r="B15">
+        <v>-1</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H15">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_折跃瞬移攻击前段</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H16">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_折跃瞬移攻击后段</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H17">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_斜向瞬移前段</v>
+      </c>
+      <c r="D18" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H18">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_斜向瞬移后段</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H19">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_水平瞬移前段</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H20">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_水平瞬移后段</v>
+      </c>
+      <c r="D21" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H21">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_移动</v>
+      </c>
+      <c r="B22">
+        <v>-1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G22">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H22">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_空中普攻1</v>
+      </c>
+      <c r="D23" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H23">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_空中普攻2循环</v>
+      </c>
+      <c r="D24" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H24">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_空中普攻2起手</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H25">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_空中普攻3</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H26">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_空中被击飞空中落地瞬间</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H27">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_空中被击飞被击飞</v>
+      </c>
+      <c r="D28" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H28">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_空中转身下劈</v>
+      </c>
+      <c r="D29" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H29">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_落地</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>39</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H30">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_被击飞落地瞬间后动作</v>
+      </c>
+      <c r="D31" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>41</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H31">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_起跳</v>
+      </c>
+      <c r="C32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H32">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_跳劈地面起跳攻击</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H33">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_跳劈空中下劈下落过程</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H34">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_跳劈空中下劈落地</v>
+      </c>
+      <c r="D35" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>52</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H35">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_跳劈空中下劈起手</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G36">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H36">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_飞踢空中</v>
+      </c>
+      <c r="D37" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H37">
+        <v>0.75726000000000004</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>蒲公英_飞踢落地</v>
+      </c>
+      <c r="D38" s="1">
+        <v>7.6899999999999996E-2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G38">
+        <v>0.48736459999999998</v>
+      </c>
+      <c r="H38">
+        <v>0.75726000000000004</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
